--- a/文档/G08QFD需求优先级.xlsx
+++ b/文档/G08QFD需求优先级.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wxh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wxh/Downloads/需求分析/SETP_SRA/文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1011E0C6-EF49-8048-9F11-DD1F72E09374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA83D6BE-0F7B-384D-9809-AA3D7646977E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="760" windowWidth="25740" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,9 +314,6 @@
     <t>用户注册</t>
   </si>
   <si>
-    <t>用户实名认证</t>
-  </si>
-  <si>
     <t>用户设置名称</t>
   </si>
   <si>
@@ -649,6 +646,10 @@
   </si>
   <si>
     <t>用户查看APP导向使用指南</t>
+  </si>
+  <si>
+    <t>用户通过统一身份验证进行实名认证</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1394,7 +1395,7 @@
   <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H118"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -1427,7 +1428,7 @@
     </row>
     <row r="2" spans="1:11" ht="14">
       <c r="A2" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1477,39 +1478,39 @@
       </c>
       <c r="B4" s="16">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" s="16">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="16">
         <f ca="1">B4*$B$1+C4*$C$1</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E4" s="19">
         <f ca="1">100*D4/$D$119</f>
-        <v>0.43177892918825561</v>
+        <v>1.2567324955116697</v>
       </c>
       <c r="F4" s="16">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="19">
         <f ca="1">100*F4/$F$119</f>
-        <v>1.3289036544850499</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H4" s="16">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4" s="19">
         <f ca="1">100*H4/$H$119</f>
-        <v>0.16949152542372881</v>
+        <v>1.6014234875444839</v>
       </c>
       <c r="J4" s="20">
         <f ca="1">E4/(G4*$F$1+I4*$H$1)</f>
-        <v>0.28816091707832509</v>
+        <v>0.47837900028872488</v>
       </c>
       <c r="K4" s="6"/>
     </row>
@@ -1519,91 +1520,91 @@
       </c>
       <c r="B5" s="16">
         <f t="shared" ref="B5:C68" ca="1" si="0">RANDBETWEEN(1,9)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="16">
         <f ca="1">B5*$B$1+C5*$C$1</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="19">
         <f ca="1">100*D5/$D$119</f>
-        <v>1.2089810017271156</v>
+        <v>1.0771992818671454</v>
       </c>
       <c r="F5" s="16">
         <f t="shared" ref="F5:F68" ca="1" si="1">RANDBETWEEN(1,9)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G5" s="19">
         <f ca="1">100*F5/$F$119</f>
-        <v>1.4950166112956811</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H5" s="16">
         <f t="shared" ref="H5:H68" ca="1" si="2">RANDBETWEEN(1,9)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" s="19">
         <f ca="1">100*H5/$H$119</f>
-        <v>0.84745762711864403</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J5" s="20">
         <f ca="1">E5/(G5*$F$1+I5*$H$1)</f>
-        <v>0.51611282715557327</v>
+        <v>0.88982615050115932</v>
       </c>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="17" thickBot="1">
       <c r="A6" s="21" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="B6" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" s="16">
         <f ca="1">B6*$B$1+C6*$C$1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="19">
         <f ca="1">100*D6/$D$119</f>
-        <v>0.94991364421416236</v>
+        <v>1.1669658886894076</v>
       </c>
       <c r="F6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G6" s="19">
         <f ca="1">100*F6/$F$119</f>
-        <v>0.49833887043189368</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H6" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I6" s="19">
         <f ca="1">100*H6/$H$119</f>
-        <v>0.67796610169491522</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J6" s="20">
         <f ca="1">E6/(G6*$F$1+I6*$H$1)</f>
-        <v>0.80754027800858352</v>
+        <v>0.41811614562381921</v>
       </c>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="17" thickBot="1">
       <c r="A7" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -1611,143 +1612,143 @@
       </c>
       <c r="D7" s="16">
         <f ca="1">B7*$B$1+C7*$C$1</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="19">
         <f ca="1">100*D7/$D$119</f>
-        <v>1.0362694300518134</v>
+        <v>0.89766606822262118</v>
       </c>
       <c r="F7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G7" s="19">
         <f ca="1">100*F7/$F$119</f>
-        <v>1.3289036544850499</v>
+        <v>0.34188034188034189</v>
       </c>
       <c r="H7" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" s="19">
         <f ca="1">100*H7/$H$119</f>
-        <v>0.84745762711864403</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J7" s="20">
         <f ca="1">E7/(G7*$F$1+I7*$H$1)</f>
-        <v>0.47614770525977107</v>
+        <v>0.63687024870425379</v>
       </c>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="17" thickBot="1">
       <c r="A8" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="16">
         <f t="shared" ref="D8:D71" ca="1" si="3">B8*$B$1+C8*$C$1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" ref="E8:E71" ca="1" si="4">100*D8/$D$119</f>
-        <v>0.86355785837651122</v>
+        <v>0.71813285457809695</v>
       </c>
       <c r="F8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" ref="G8:G71" ca="1" si="5">100*F8/$F$119</f>
-        <v>1.3289036544850499</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H8" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" ref="I8:I71" ca="1" si="6">100*H8/$H$119</f>
-        <v>0.50847457627118642</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J8" s="20">
         <f t="shared" ref="J8:J71" ca="1" si="7">E8/(G8*$F$1+I8*$H$1)</f>
-        <v>0.46999460640234331</v>
+        <v>0.59321743366743951</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" thickBot="1">
       <c r="A9" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="16">
         <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
-      </c>
-      <c r="C9" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
       </c>
       <c r="D9" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2953367875647668</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49833887043189368</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50847457627118642</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J9" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2865708059486967</v>
+        <v>0.40317714924802078</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" thickBot="1">
       <c r="A10" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77720207253886009</v>
+        <v>0.53859964093357271</v>
       </c>
       <c r="F10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16611295681063123</v>
+        <v>0.34188034188034189</v>
       </c>
       <c r="H10" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -1755,24 +1756,24 @@
       </c>
       <c r="I10" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0169491525423728</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J10" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.65694105693563143</v>
+        <v>0.38212214922255228</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17" thickBot="1">
       <c r="A11" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -1780,15 +1781,15 @@
       </c>
       <c r="E11" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60449050086355782</v>
+        <v>0.62836624775583483</v>
       </c>
       <c r="F11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49833887043189368</v>
+        <v>1.1965811965811965</v>
       </c>
       <c r="H11" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -1796,122 +1797,122 @@
       </c>
       <c r="I11" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3559322033898304</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3259989919476442</v>
+        <v>0.23982815332561622</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17" thickBot="1">
       <c r="A12" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77720207253886009</v>
+        <v>1.2567324955116697</v>
       </c>
       <c r="F12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16611295681063123</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1864406779661016</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J12" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.57461830167433881</v>
+        <v>0.64903541085355265</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="A13" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69084628670120896</v>
+        <v>0.89766606822262118</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33222591362126247</v>
+        <v>1.1965811965811965</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50847457627118642</v>
+        <v>0.71174377224199292</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.82175078402724522</v>
+        <v>0.47039476131582908</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69084628670120896</v>
+        <v>1.0771992818671454</v>
       </c>
       <c r="F14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83056478405315615</v>
+        <v>0.68376068376068377</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -1919,40 +1920,40 @@
       </c>
       <c r="I14" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33898305084745761</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.59069519525887204</v>
+        <v>1.036134604738038</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69084628670120896</v>
+        <v>0.44883303411131059</v>
       </c>
       <c r="F15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99667774086378735</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H15" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -1960,24 +1961,24 @@
       </c>
       <c r="I15" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33898305084745761</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.51723183834429898</v>
+        <v>0.26043564529610941</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17" thickBot="1">
       <c r="A16" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -1985,7 +1986,7 @@
       </c>
       <c r="E16" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51813471502590669</v>
+        <v>0.53859964093357271</v>
       </c>
       <c r="F16" s="16">
         <f t="shared" ca="1" si="1"/>
@@ -1993,130 +1994,130 @@
       </c>
       <c r="G16" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99667774086378735</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H16" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84745762711864403</v>
+        <v>1.2455516014234875</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28096349325633824</v>
+        <v>0.23714397207677876</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1">
       <c r="A17" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86355785837651122</v>
+        <v>0.71813285457809695</v>
       </c>
       <c r="F17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G17" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33222591362126247</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84745762711864403</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J17" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.73202501226293382</v>
+        <v>0.25730224346081182</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1">
       <c r="A18" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D18" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25906735751295334</v>
+        <v>1.1669658886894076</v>
       </c>
       <c r="F18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3289036544850499</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="H18" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16949152542372881</v>
+        <v>0.71174377224199292</v>
       </c>
       <c r="J18" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17289655024699505</v>
+        <v>0.51860418386647267</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17" thickBot="1">
       <c r="A19" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D19" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E19" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5544041450777202</v>
+        <v>0.71813285457809695</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1627906976744187</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -2124,155 +2125,155 @@
       </c>
       <c r="I19" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50847457627118642</v>
+        <v>0.53380782918149461</v>
       </c>
       <c r="J19" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.9300762537882491</v>
+        <v>0.68613931589549837</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17" thickBot="1">
       <c r="A20" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D20" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E20" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51813471502590669</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G20" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49833887043189368</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3559322033898304</v>
+        <v>0.53380782918149461</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.27942770738369505</v>
+        <v>0.47649822482681087</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17" thickBot="1">
       <c r="A21" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D21" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E21" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51813471502590669</v>
+        <v>1.1669658886894076</v>
       </c>
       <c r="F21" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4950166112956811</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I21" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33898305084745761</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28251625434894312</v>
+        <v>0.47648208547493365</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17" thickBot="1">
       <c r="A22" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94991364421416236</v>
+        <v>0.62836624775583483</v>
       </c>
       <c r="F22" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G22" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33222591362126247</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H22" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I22" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33898305084745761</v>
+        <v>1.2455516014234875</v>
       </c>
       <c r="J22" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4152278865435663</v>
+        <v>0.27666796742290856</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17" thickBot="1">
       <c r="A23" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17271157167530224</v>
+        <v>1.4362657091561939</v>
       </c>
       <c r="F23" s="16">
         <f t="shared" ca="1" si="1"/>
@@ -2280,7 +2281,7 @@
       </c>
       <c r="G23" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1627906976744187</v>
+        <v>1.1965811965811965</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -2288,20 +2289,20 @@
       </c>
       <c r="I23" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0169491525423728</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J23" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9234947077801404E-2</v>
+        <v>0.63433782536174355</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17" thickBot="1">
       <c r="A24" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -2309,118 +2310,118 @@
       </c>
       <c r="D24" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86355785837651122</v>
+        <v>1.0771992818671454</v>
       </c>
       <c r="F24" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G24" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1627906976744187</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H24" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84745762711864403</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J24" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.42957770327474692</v>
+        <v>0.55631606644590226</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17" thickBot="1">
       <c r="A25" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C25" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86355785837651122</v>
+        <v>0.53859964093357271</v>
       </c>
       <c r="F25" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1627906976744187</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H25" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3559322033898304</v>
+        <v>1.2455516014234875</v>
       </c>
       <c r="J25" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.34285544392820166</v>
+        <v>0.2061173366892454</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1">
       <c r="A26" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="16">
         <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
-      </c>
-      <c r="C26" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
       </c>
       <c r="D26" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3816925734024179</v>
+        <v>1.5260323159784561</v>
       </c>
       <c r="F26" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G26" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83056478405315615</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H26" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16949152542372881</v>
+        <v>0.53380782918149461</v>
       </c>
       <c r="J26" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3816147753971588</v>
+        <v>1.4580460462779341</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1">
       <c r="A27" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -2428,56 +2429,56 @@
       </c>
       <c r="C27" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94991364421416236</v>
+        <v>0.71813285457809695</v>
       </c>
       <c r="F27" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83056478405315615</v>
+        <v>0.34188034188034189</v>
       </c>
       <c r="H27" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16949152542372881</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J27" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.9498601580855468</v>
+        <v>1.0292089738432473</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1">
       <c r="A28" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C28" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D28" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94991364421416236</v>
+        <v>0.71813285457809695</v>
       </c>
       <c r="F28" s="16">
         <f t="shared" ca="1" si="1"/>
@@ -2485,40 +2486,40 @@
       </c>
       <c r="G28" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16611295681063123</v>
+        <v>0.17094017094017094</v>
       </c>
       <c r="H28" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84745762711864403</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J28" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.93719535597773951</v>
+        <v>0.57981468221915755</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="17" thickBot="1">
       <c r="A29" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51813471502590669</v>
+        <v>0.62836624775583483</v>
       </c>
       <c r="F29" s="16">
         <f t="shared" ca="1" si="1"/>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="G29" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99667774086378735</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -2534,16 +2535,16 @@
       </c>
       <c r="I29" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0169491525423728</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J29" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25731416118973932</v>
+        <v>0.3001859507042805</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17" thickBot="1">
       <c r="A30" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -2551,40 +2552,40 @@
       </c>
       <c r="C30" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86355785837651122</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F30" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G30" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3289036544850499</v>
+        <v>0.68376068376068377</v>
       </c>
       <c r="H30" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50847457627118642</v>
+        <v>0.71174377224199292</v>
       </c>
       <c r="J30" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.46999460640234331</v>
+        <v>0.70758116951723249</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17" thickBot="1">
       <c r="A31" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -2592,15 +2593,15 @@
       </c>
       <c r="C31" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3816925734024179</v>
+        <v>1.3464991023339319</v>
       </c>
       <c r="F31" s="16">
         <f t="shared" ca="1" si="1"/>
@@ -2608,28 +2609,28 @@
       </c>
       <c r="G31" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3289036544850499</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H31" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3559322033898304</v>
+        <v>1.2455516014234875</v>
       </c>
       <c r="J31" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.51462832237947864</v>
+        <v>0.51529334172311347</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="17" thickBot="1">
       <c r="A32" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -2637,60 +2638,60 @@
       </c>
       <c r="D32" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25906735751295334</v>
+        <v>0.17953321364452424</v>
       </c>
       <c r="F32" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G32" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66445182724252494</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="H32" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I32" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3559322033898304</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J32" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12822678935542192</v>
+        <v>9.4773819283735114E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94991364421416236</v>
+        <v>0.80789946140035906</v>
       </c>
       <c r="F33" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G33" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99667774086378735</v>
+        <v>0.34188034188034189</v>
       </c>
       <c r="H33" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -2698,81 +2699,81 @@
       </c>
       <c r="I33" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33898305084745761</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J33" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.71119377772341108</v>
+        <v>1.1578600955736531</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" thickBot="1">
       <c r="A34" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D34" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E34" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86355785837651122</v>
+        <v>0.35906642728904847</v>
       </c>
       <c r="F34" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G34" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3289036544850499</v>
+        <v>0.68376068376068377</v>
       </c>
       <c r="H34" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I34" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1864406779661016</v>
+        <v>0.53380782918149461</v>
       </c>
       <c r="J34" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.34331596165006628</v>
+        <v>0.29490449487839238</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="A35" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86355785837651122</v>
+        <v>0.71813285457809695</v>
       </c>
       <c r="F35" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G35" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49833887043189368</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H35" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -2780,155 +2781,155 @@
       </c>
       <c r="I35" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67796610169491522</v>
+        <v>0.71174377224199292</v>
       </c>
       <c r="J35" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.73412752546234872</v>
+        <v>0.4584476477662931</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" thickBot="1">
       <c r="A36" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C36" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E36" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34542314335060448</v>
+        <v>1.0771992818671454</v>
       </c>
       <c r="F36" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G36" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49833887043189368</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H36" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I36" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84745762711864403</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J36" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25666818421604121</v>
+        <v>0.3859533651912177</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17" thickBot="1">
       <c r="A37" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C37" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D37" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60449050086355782</v>
+        <v>0.53859964093357271</v>
       </c>
       <c r="F37" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G37" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99667774086378735</v>
+        <v>0.68376068376068377</v>
       </c>
       <c r="H37" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50847457627118642</v>
+        <v>0.17793594306049823</v>
       </c>
       <c r="J37" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.40161417152397771</v>
+        <v>0.62504554871066254</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17" thickBot="1">
       <c r="A38" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D38" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86355785837651122</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F38" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G38" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3289036544850499</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H38" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I38" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5254237288135593</v>
+        <v>0.88967971530249113</v>
       </c>
       <c r="J38" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30254338147383036</v>
+        <v>0.70405170369660874</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17" thickBot="1">
       <c r="A39" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E39" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3816925734024179</v>
+        <v>0.26929982046678635</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" ca="1" si="1"/>
@@ -2936,28 +2937,28 @@
       </c>
       <c r="G39" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16611295681063123</v>
+        <v>0.17094017094017094</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I39" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1864406779661016</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J39" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0215436474210466</v>
+        <v>0.16890061422141422</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17" thickBot="1">
       <c r="A40" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -2965,77 +2966,77 @@
       </c>
       <c r="D40" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2089810017271156</v>
+        <v>1.3464991023339319</v>
       </c>
       <c r="F40" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G40" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49833887043189368</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I40" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1864406779661016</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J40" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.71759002706122488</v>
+        <v>0.45459900377318418</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17" thickBot="1">
       <c r="A41" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C41" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D41" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86355785837651122</v>
+        <v>1.1669658886894076</v>
       </c>
       <c r="F41" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G41" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3289036544850499</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H41" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I41" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1864406779661016</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J41" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.34331596165006628</v>
+        <v>0.55748819416509243</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17" thickBot="1">
       <c r="A42" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -3043,89 +3044,89 @@
       </c>
       <c r="C42" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D42" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E42" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34542314335060448</v>
+        <v>0.89766606822262118</v>
       </c>
       <c r="F42" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3289036544850499</v>
+        <v>1.1965811965811965</v>
       </c>
       <c r="H42" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I42" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5254237288135593</v>
+        <v>1.2455516014234875</v>
       </c>
       <c r="J42" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12101735258953214</v>
+        <v>0.36757463351544545</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17" thickBot="1">
       <c r="A43" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B43" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C43" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D43" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77720207253886009</v>
+        <v>0.89766606822262118</v>
       </c>
       <c r="F43" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83056478405315615</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H43" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I43" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84745762711864403</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J43" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4631654901415308</v>
+        <v>0.42883707243468644</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17" thickBot="1">
       <c r="A44" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C44" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -3133,163 +3134,163 @@
       </c>
       <c r="E44" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69084628670120896</v>
+        <v>0.71813285457809695</v>
       </c>
       <c r="F44" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G44" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99667774086378735</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H44" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I44" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0169491525423728</v>
+        <v>0.88967971530249113</v>
       </c>
       <c r="J44" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.34308554825298576</v>
+        <v>0.41168358953729889</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17" thickBot="1">
       <c r="A45" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C45" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D45" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86355785837651122</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F45" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16611295681063123</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H45" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I45" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50847457627118642</v>
+        <v>1.2455516014234875</v>
       </c>
       <c r="J45" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2801272125966998</v>
+        <v>0.47014951567633062</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17" thickBot="1">
       <c r="A46" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B46" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69084628670120896</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F46" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66445182724252494</v>
+        <v>0.34188034188034189</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I46" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1864406779661016</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J46" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.37325035611581292</v>
+        <v>1.415162339034465</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="17" thickBot="1">
       <c r="A47" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C47" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D47" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E47" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.468048359240069</v>
+        <v>0.17953321364452424</v>
       </c>
       <c r="F47" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G47" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49833887043189368</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="H47" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I47" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0169491525423728</v>
+        <v>0.71174377224199292</v>
       </c>
       <c r="J47" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.96882463068541014</v>
+        <v>7.9785259056380411E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17" thickBot="1">
       <c r="A48" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -3297,7 +3298,7 @@
       </c>
       <c r="E48" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86355785837651122</v>
+        <v>0.89766606822262118</v>
       </c>
       <c r="F48" s="16">
         <f t="shared" ca="1" si="1"/>
@@ -3305,73 +3306,73 @@
       </c>
       <c r="G48" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49833887043189368</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H48" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I48" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84745762711864403</v>
+        <v>0.17793594306049823</v>
       </c>
       <c r="J48" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.64167046054010313</v>
+        <v>1.2995406131640299</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17" thickBot="1">
       <c r="A49" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D49" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2953367875647668</v>
+        <v>1.1669658886894076</v>
       </c>
       <c r="F49" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G49" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1627906976744187</v>
+        <v>0.17094017094017094</v>
       </c>
       <c r="H49" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I49" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84745762711864403</v>
+        <v>0.53380782918149461</v>
       </c>
       <c r="J49" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.64436655491212036</v>
+        <v>1.65586264663106</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="17" thickBot="1">
       <c r="A50" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C50" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -3379,73 +3380,73 @@
       </c>
       <c r="E50" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0362694300518134</v>
+        <v>1.0771992818671454</v>
       </c>
       <c r="F50" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G50" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33222591362126247</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="H50" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I50" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50847457627118642</v>
+        <v>0.88967971530249113</v>
       </c>
       <c r="J50" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2326261760408677</v>
+        <v>0.44363122623006568</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="17" thickBot="1">
       <c r="A51" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B51" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E51" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60449050086355782</v>
+        <v>0.89766606822262118</v>
       </c>
       <c r="F51" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G51" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83056478405315615</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H51" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I51" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5254237288135593</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J51" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25657616646357373</v>
+        <v>0.64977030658201496</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="17" thickBot="1">
       <c r="A52" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -3453,48 +3454,48 @@
       </c>
       <c r="C52" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77720207253886009</v>
+        <v>0.71813285457809695</v>
       </c>
       <c r="F52" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G52" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99667774086378735</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H52" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I52" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84745762711864403</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J52" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.42144523988450738</v>
+        <v>0.37087737763060152</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="17" thickBot="1">
       <c r="A53" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D53" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -3502,73 +3503,73 @@
       </c>
       <c r="E53" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94991364421416236</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F53" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49833887043189368</v>
+        <v>0.17094017094017094</v>
       </c>
       <c r="H53" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I53" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84745762711864403</v>
+        <v>1.2455516014234875</v>
       </c>
       <c r="J53" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.70583750659411337</v>
+        <v>0.69709736004832779</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="17" thickBot="1">
       <c r="A54" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B54" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E54" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51813471502590669</v>
+        <v>0.71813285457809695</v>
       </c>
       <c r="F54" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G54" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3289036544850499</v>
+        <v>0.17094017094017094</v>
       </c>
       <c r="H54" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67796610169491522</v>
+        <v>0.17793594306049823</v>
       </c>
       <c r="J54" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25818053883684283</v>
+        <v>2.0584179476864946</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="17" thickBot="1">
       <c r="A55" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -3576,15 +3577,15 @@
       </c>
       <c r="C55" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D55" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E55" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60449050086355782</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F55" s="16">
         <f t="shared" ca="1" si="1"/>
@@ -3592,73 +3593,73 @@
       </c>
       <c r="G55" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16611295681063123</v>
+        <v>0.17094017094017094</v>
       </c>
       <c r="H55" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I55" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84745762711864403</v>
+        <v>0.17793594306049823</v>
       </c>
       <c r="J55" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.59639704471310684</v>
+        <v>2.83032467806893</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="17" thickBot="1">
       <c r="A56" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B56" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D56" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E56" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.468048359240069</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F56" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G56" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1627906976744187</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="H56" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I56" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84745762711864403</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J56" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.73028209556706969</v>
+        <v>0.37889617247257967</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="17" thickBot="1">
       <c r="A57" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -3666,48 +3667,48 @@
       </c>
       <c r="E57" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86355785837651122</v>
+        <v>0.89766606822262118</v>
       </c>
       <c r="F57" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16611295681063123</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H57" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I57" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5254237288135593</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J57" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.51051677785980243</v>
+        <v>0.56798628416002928</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="17" thickBot="1">
       <c r="A58" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="16">
         <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C58" s="16">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
-      </c>
-      <c r="C58" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
       </c>
       <c r="D58" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E58" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60449050086355782</v>
+        <v>0.44883303411131059</v>
       </c>
       <c r="F58" s="16">
         <f t="shared" ca="1" si="1"/>
@@ -3715,40 +3716,40 @@
       </c>
       <c r="G58" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3289036544850499</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H58" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I58" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3559322033898304</v>
+        <v>0.17793594306049823</v>
       </c>
       <c r="J58" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.2251498910410219</v>
+        <v>0.29042085539219753</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="17" thickBot="1">
       <c r="A59" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C59" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E59" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94991364421416236</v>
+        <v>0.62836624775583483</v>
       </c>
       <c r="F59" s="16">
         <f t="shared" ca="1" si="1"/>
@@ -3756,89 +3757,89 @@
       </c>
       <c r="G59" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4950166112956811</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="H59" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I59" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50847457627118642</v>
+        <v>1.6014234875444839</v>
       </c>
       <c r="J59" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4741291851489407</v>
+        <v>0.20012396713618696</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="17" thickBot="1">
       <c r="A60" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B60" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D60" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E60" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69084628670120896</v>
+        <v>1.0771992818671454</v>
       </c>
       <c r="F60" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G60" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83056478405315615</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H60" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I60" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0169491525423728</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J60" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.37393292305781073</v>
+        <v>0.77972436789841792</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="17" thickBot="1">
       <c r="A61" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B61" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D61" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86355785837651122</v>
+        <v>0.80789946140035906</v>
       </c>
       <c r="F61" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G61" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3289036544850499</v>
+        <v>0.34188034188034189</v>
       </c>
       <c r="H61" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -3846,114 +3847,114 @@
       </c>
       <c r="I61" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3559322033898304</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J61" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32164270148717417</v>
+        <v>0.45763801847793945</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="17" thickBot="1">
       <c r="A62" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B62" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C62" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E62" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51813471502590669</v>
+        <v>1.0771992818671454</v>
       </c>
       <c r="F62" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G62" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66445182724252494</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H62" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I62" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16949152542372881</v>
+        <v>0.88967971530249113</v>
       </c>
       <c r="J62" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.62130684700506933</v>
+        <v>0.47722787750904377</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="17" thickBot="1">
       <c r="A63" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B63" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C63" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D63" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E63" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2089810017271156</v>
+        <v>0.44883303411131059</v>
       </c>
       <c r="F63" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G63" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49833887043189368</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H63" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50847457627118642</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J63" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2007994188854501</v>
+        <v>0.26043564529610941</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="17" thickBot="1">
       <c r="A64" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B64" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E64" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0362694300518134</v>
+        <v>0.89766606822262118</v>
       </c>
       <c r="F64" s="16">
         <f t="shared" ca="1" si="1"/>
@@ -3961,65 +3962,65 @@
       </c>
       <c r="G64" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3289036544850499</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H64" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I64" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33898305084745761</v>
+        <v>1.2455516014234875</v>
       </c>
       <c r="J64" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.62130684700506933</v>
+        <v>0.34352889448207563</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="17" thickBot="1">
       <c r="A65" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B65" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C65" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E65" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69084628670120896</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F65" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G65" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16611295681063123</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="H65" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I65" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16949152542372881</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J65" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2.0585132895179146</v>
+        <v>0.3333726027670017</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="17" thickBot="1">
       <c r="A66" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -4027,105 +4028,105 @@
       </c>
       <c r="C66" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D66" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E66" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60449050086355782</v>
+        <v>1.0771992818671454</v>
       </c>
       <c r="F66" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G66" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33222591362126247</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H66" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I66" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67796610169491522</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J66" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.59839168365863571</v>
+        <v>0.88982615050115932</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="17" thickBot="1">
       <c r="A67" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B67" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D67" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E67" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77720207253886009</v>
+        <v>1.2567324955116697</v>
       </c>
       <c r="F67" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G67" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49833887043189368</v>
+        <v>0.68376068376068377</v>
       </c>
       <c r="H67" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I67" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5254237288135593</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J67" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38403816377900996</v>
+        <v>0.71756850043308729</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17" thickBot="1">
       <c r="A68" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B68" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C68" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D68" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E68" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.468048359240069</v>
+        <v>0.26929982046678635</v>
       </c>
       <c r="F68" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G68" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1627906976744187</v>
+        <v>0.17094017094017094</v>
       </c>
       <c r="H68" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -4133,57 +4134,57 @@
       </c>
       <c r="I68" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3559322033898304</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J68" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.58285425467794283</v>
+        <v>0.16890061422141422</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="17" thickBot="1">
       <c r="A69" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B69" s="16">
         <f t="shared" ref="B69:C118" ca="1" si="8">RANDBETWEEN(1,9)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D69" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E69" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2953367875647668</v>
+        <v>0.53859964093357271</v>
       </c>
       <c r="F69" s="16">
         <f t="shared" ref="F69:F118" ca="1" si="9">RANDBETWEEN(1,9)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G69" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4950166112956811</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H69" s="16">
         <f t="shared" ref="H69:H118" ca="1" si="10">RANDBETWEEN(1,9)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I69" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50847457627118642</v>
+        <v>1.6014234875444839</v>
       </c>
       <c r="J69" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.64653979793037364</v>
+        <v>0.21928842594393894</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="17" thickBot="1">
       <c r="A70" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B70" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -4191,23 +4192,23 @@
       </c>
       <c r="C70" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D70" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E70" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2953367875647668</v>
+        <v>1.5260323159784561</v>
       </c>
       <c r="F70" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G70" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4950166112956811</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H70" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -4215,16 +4216,16 @@
       </c>
       <c r="I70" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5254237288135593</v>
+        <v>1.6014234875444839</v>
       </c>
       <c r="J70" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4288569353162322</v>
+        <v>0.62131720684116043</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="17" thickBot="1">
       <c r="A71" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -4232,310 +4233,310 @@
       </c>
       <c r="C71" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1226252158894645</v>
+        <v>0.89766606822262118</v>
       </c>
       <c r="F71" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G71" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49833887043189368</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H71" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I71" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3559322033898304</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J71" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.6054266993313393</v>
+        <v>0.74152179208429936</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="17" thickBot="1">
       <c r="A72" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C72" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D72" s="16">
         <f t="shared" ref="D72:D118" ca="1" si="11">B72*$B$1+C72*$C$1</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E72" s="19">
         <f t="shared" ref="E72:E118" ca="1" si="12">100*D72/$D$119</f>
-        <v>0.69084628670120896</v>
+        <v>0.89766606822262118</v>
       </c>
       <c r="F72" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G72" s="19">
         <f t="shared" ref="G72:G118" ca="1" si="13">100*F72/$F$119</f>
-        <v>0.66445182724252494</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H72" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I72" s="19">
         <f t="shared" ref="I72:I118" ca="1" si="14">100*H72/$H$119</f>
-        <v>1.1864406779661016</v>
+        <v>0.71174377224199292</v>
       </c>
       <c r="J72" s="20">
         <f t="shared" ref="J72:J118" ca="1" si="15">E72/(G72*$F$1+I72*$H$1)</f>
-        <v>0.37325035611581292</v>
+        <v>0.51667659882624506</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17" thickBot="1">
       <c r="A73" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B73" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D73" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E73" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.43177892918825561</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F73" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G73" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.83056478405315615</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H73" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I73" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.50847457627118642</v>
+        <v>0.88967971530249113</v>
       </c>
       <c r="J73" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.32245424741186846</v>
+        <v>0.43745888771662345</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="17" thickBot="1">
       <c r="A74" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B74" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C74" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E74" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.77720207253886009</v>
+        <v>1.3464991023339319</v>
       </c>
       <c r="F74" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G74" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.66445182724252494</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H74" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I74" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.50847457627118642</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J74" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.66261793596820051</v>
+        <v>0.48244170648902218</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="17" thickBot="1">
       <c r="A75" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B75" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D75" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E75" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.468048359240069</v>
+        <v>1.0771992818671454</v>
       </c>
       <c r="F75" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G75" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.33222591362126247</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H75" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I75" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.3559322033898304</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J75" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.86961543734971269</v>
+        <v>0.44235674231758854</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="17" thickBot="1">
       <c r="A76" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B76" s="16">
         <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C76" s="16">
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
-      </c>
-      <c r="C76" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
       </c>
       <c r="D76" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E76" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.0362694300518134</v>
+        <v>0.62836624775583483</v>
       </c>
       <c r="F76" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G76" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.4950166112956811</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H76" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I76" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.67796610169491522</v>
+        <v>0.53380782918149461</v>
       </c>
       <c r="J76" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.47688802301866162</v>
+        <v>0.40294123517590374</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="17" thickBot="1">
       <c r="A77" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B77" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D77" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E77" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.86355785837651122</v>
+        <v>1.3464991023339319</v>
       </c>
       <c r="F77" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G77" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.66445182724252494</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="H77" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I77" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0169491525423728</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J77" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.51359424001702825</v>
+        <v>0.45459900377318418</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17" thickBot="1">
       <c r="A78" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B78" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C78" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D78" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E78" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.17271157167530224</v>
+        <v>1.1669658886894076</v>
       </c>
       <c r="F78" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G78" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3289036544850499</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H78" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -4543,40 +4544,40 @@
       </c>
       <c r="I78" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33898305084745761</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J78" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.10355114116751156</v>
+        <v>0.9639783297095893</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="17" thickBot="1">
       <c r="A79" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B79" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D79" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E79" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3816925734024179</v>
+        <v>0.80789946140035906</v>
       </c>
       <c r="F79" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G79" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1627906976744187</v>
+        <v>0.34188034188034189</v>
       </c>
       <c r="H79" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -4584,147 +4585,147 @@
       </c>
       <c r="I79" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0169491525423728</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J79" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.63387957662241123</v>
+        <v>0.57318322383382847</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="17" thickBot="1">
       <c r="A80" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B80" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C80" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E80" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.60449050086355782</v>
+        <v>0.80789946140035906</v>
       </c>
       <c r="F80" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G80" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.33222591362126247</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="H80" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I80" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5254237288135593</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J80" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.32540608683952482</v>
+        <v>0.27275940226391049</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="17" thickBot="1">
       <c r="A81" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B81" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C81" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D81" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E81" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3816925734024179</v>
+        <v>0.35906642728904847</v>
       </c>
       <c r="F81" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G81" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.4950166112956811</v>
+        <v>0.68376068376068377</v>
       </c>
       <c r="H81" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I81" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.67796610169491522</v>
+        <v>0.17793594306049823</v>
       </c>
       <c r="J81" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.63585069735821553</v>
+        <v>0.41669703247377504</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="17" thickBot="1">
       <c r="A82" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B82" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C82" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E82" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.86355785837651122</v>
+        <v>1.3464991023339319</v>
       </c>
       <c r="F82" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G82" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.99667774086378735</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H82" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I82" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.3559322033898304</v>
+        <v>1.6014234875444839</v>
       </c>
       <c r="J82" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.36706376273117436</v>
+        <v>0.45352782488917814</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="17" thickBot="1">
       <c r="A83" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B83" s="16">
         <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C83" s="16">
+        <f t="shared" ca="1" si="8"/>
         <v>7</v>
-      </c>
-      <c r="C83" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>9</v>
       </c>
       <c r="D83" s="16">
         <f t="shared" ca="1" si="11"/>
@@ -4732,89 +4733,89 @@
       </c>
       <c r="E83" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3816925734024179</v>
+        <v>1.4362657091561939</v>
       </c>
       <c r="F83" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G83" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1627906976744187</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H83" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I83" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0169491525423728</v>
+        <v>1.6014234875444839</v>
       </c>
       <c r="J83" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.63387957662241123</v>
+        <v>0.54671885747282845</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17" thickBot="1">
       <c r="A84" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B84" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C84" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E84" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.60449050086355782</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F84" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G84" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.99667774086378735</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H84" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I84" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0169491525423728</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J84" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.30019985472136251</v>
+        <v>0.57295841965144068</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="17" thickBot="1">
       <c r="A85" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C85" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D85" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E85" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2953367875647668</v>
+        <v>0.26929982046678635</v>
       </c>
       <c r="F85" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -4822,192 +4823,192 @@
       </c>
       <c r="G85" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49833887043189368</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H85" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I85" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5254237288135593</v>
+        <v>0.71174377224199292</v>
       </c>
       <c r="J85" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.64006360629834991</v>
+        <v>0.21991480868073859</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17" thickBot="1">
       <c r="A86" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B86" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C86" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D86" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E86" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.86355785837651122</v>
+        <v>1.0771992818671454</v>
       </c>
       <c r="F86" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G86" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49833887043189368</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H86" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I86" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5254237288135593</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J86" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.42670907086556659</v>
+        <v>0.62504554871066254</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="17" thickBot="1">
       <c r="A87" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B87" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D87" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E87" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.1226252158894645</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F87" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G87" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.33222591362126247</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H87" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I87" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5254237288135593</v>
+        <v>0.17793594306049823</v>
       </c>
       <c r="J87" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.60432558984483176</v>
+        <v>0.63892588186283461</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="17" thickBot="1">
       <c r="A88" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B88" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C88" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E88" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.77720207253886009</v>
+        <v>0.44883303411131059</v>
       </c>
       <c r="F88" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G88" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.66445182724252494</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H88" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I88" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5254237288135593</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J88" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.35490695824678881</v>
+        <v>0.19701313301038129</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="17" thickBot="1">
       <c r="A89" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B89" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C89" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D89" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E89" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.5544041450777202</v>
+        <v>0.89766606822262118</v>
       </c>
       <c r="F89" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G89" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.83056478405315615</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H89" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I89" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5254237288135593</v>
+        <v>0.17793594306049823</v>
       </c>
       <c r="J89" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.65976728519204675</v>
+        <v>1.2995406131640299</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="17" thickBot="1">
       <c r="A90" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B90" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -5015,118 +5016,118 @@
       </c>
       <c r="D90" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E90" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.69084628670120896</v>
+        <v>0.62836624775583483</v>
       </c>
       <c r="F90" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G90" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.4950166112956811</v>
+        <v>0.17094017094017094</v>
       </c>
       <c r="H90" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I90" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0169491525423728</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J90" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.27502217452424949</v>
+        <v>0.39410143318329988</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="17" thickBot="1">
       <c r="A91" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B91" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D91" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E91" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.468048359240069</v>
+        <v>1.0771992818671454</v>
       </c>
       <c r="F91" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G91" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.83056478405315615</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="H91" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I91" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0169491525423728</v>
+        <v>0.71174377224199292</v>
       </c>
       <c r="J91" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.79460746149784789</v>
+        <v>0.47871155433828244</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="17" thickBot="1">
       <c r="A92" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B92" s="16">
         <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C92" s="16">
+        <f t="shared" ca="1" si="8"/>
         <v>7</v>
-      </c>
-      <c r="C92" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
       </c>
       <c r="D92" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E92" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2953367875647668</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F92" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G92" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.66445182724252494</v>
+        <v>0.34188034188034189</v>
       </c>
       <c r="H92" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.16949152542372881</v>
+        <v>0.53380782918149461</v>
       </c>
       <c r="J92" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>1.5532671175126733</v>
+        <v>1.1276076435377085</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="17" thickBot="1">
       <c r="A93" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B93" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -5134,48 +5135,48 @@
       </c>
       <c r="C93" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D93" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E93" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.94991364421416236</v>
+        <v>0.62836624775583483</v>
       </c>
       <c r="F93" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G93" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3289036544850499</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H93" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.16949152542372881</v>
+        <v>0.53380782918149461</v>
       </c>
       <c r="J93" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.63395401757231529</v>
+        <v>0.600371901408561</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="17" thickBot="1">
       <c r="A94" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B94" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C94" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D94" s="16">
         <f t="shared" ca="1" si="11"/>
@@ -5183,15 +5184,15 @@
       </c>
       <c r="E94" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.0362694300518134</v>
+        <v>1.0771992818671454</v>
       </c>
       <c r="F94" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.16611295681063123</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H94" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -5199,57 +5200,57 @@
       </c>
       <c r="I94" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.16949152542372881</v>
+        <v>0.17793594306049823</v>
       </c>
       <c r="J94" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>3.0877699342768716</v>
+        <v>1.5594487357968358</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="17" thickBot="1">
       <c r="A95" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B95" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E95" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.43177892918825561</v>
+        <v>0.26929982046678635</v>
       </c>
       <c r="F95" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G95" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3289036544850499</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H95" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I95" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.3559322033898304</v>
+        <v>0.53380782918149461</v>
       </c>
       <c r="J95" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.16082135074358708</v>
+        <v>0.17268910078967303</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="17" thickBot="1">
       <c r="A96" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B96" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -5257,302 +5258,302 @@
       </c>
       <c r="C96" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D96" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E96" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.94991364421416236</v>
+        <v>0.80789946140035906</v>
       </c>
       <c r="F96" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G96" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.83056478405315615</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H96" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I96" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.84745762711864403</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J96" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.56609115461742654</v>
+        <v>0.41723704983442672</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="17" thickBot="1">
       <c r="A97" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B97" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E97" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.43177892918825561</v>
+        <v>0.53859964093357271</v>
       </c>
       <c r="F97" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G97" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.66445182724252494</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H97" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I97" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.1864406779661016</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J97" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.23328147257238308</v>
+        <v>0.2801826011862828</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="17" thickBot="1">
       <c r="A98" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B98" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C98" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D98" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E98" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.77720207253886009</v>
+        <v>1.0771992818671454</v>
       </c>
       <c r="F98" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G98" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.66445182724252494</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H98" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I98" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.3559322033898304</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J98" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.38468036806626582</v>
+        <v>0.5603652023725656</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="17" thickBot="1">
       <c r="A99" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B99" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C99" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E99" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.69084628670120896</v>
+        <v>0.80789946140035906</v>
       </c>
       <c r="F99" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.33222591362126247</v>
+        <v>0.17094017094017094</v>
       </c>
       <c r="H99" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I99" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33898305084745761</v>
+        <v>1.2455516014234875</v>
       </c>
       <c r="J99" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>1.0292566447589573</v>
+        <v>0.5703523854940864</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="17" thickBot="1">
       <c r="A100" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B100" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C100" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E100" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.94991364421416236</v>
+        <v>0.53859964093357271</v>
       </c>
       <c r="F100" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G100" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.4950166112956811</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H100" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33898305084745761</v>
+        <v>0.17793594306049823</v>
       </c>
       <c r="J100" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.51794646630639574</v>
+        <v>0.77972436789841792</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="17" thickBot="1">
       <c r="A101" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B101" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D101" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E101" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.25906735751295334</v>
+        <v>0.71813285457809695</v>
       </c>
       <c r="F101" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G101" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3289036544850499</v>
+        <v>0.34188034188034189</v>
       </c>
       <c r="H101" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I101" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.84745762711864403</v>
+        <v>0.71174377224199292</v>
       </c>
       <c r="J101" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.11903692631494277</v>
+        <v>0.681583540992035</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="17" thickBot="1">
       <c r="A102" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B102" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C102" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D102" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E102" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2953367875647668</v>
+        <v>0.71813285457809695</v>
       </c>
       <c r="F102" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G102" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1627906976744187</v>
+        <v>0.17094017094017094</v>
       </c>
       <c r="H102" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I102" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.16949152542372881</v>
+        <v>0.88967971530249113</v>
       </c>
       <c r="J102" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.9722690621455069</v>
+        <v>0.67708786521262088</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="17" thickBot="1">
       <c r="A103" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B103" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C103" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D103" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E103" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.0362694300518134</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F103" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -5560,89 +5561,89 @@
       </c>
       <c r="G103" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3289036544850499</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H103" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I103" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5254237288135593</v>
+        <v>0.17793594306049823</v>
       </c>
       <c r="J103" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.36305205776859639</v>
+        <v>0.63892588186283461</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="17" thickBot="1">
       <c r="A104" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B104" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C104" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D104" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E104" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.77720207253886009</v>
+        <v>0.44883303411131059</v>
       </c>
       <c r="F104" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G104" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1627906976744187</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H104" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I104" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.67796610169491522</v>
+        <v>1.6014234875444839</v>
       </c>
       <c r="J104" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.42221877045633577</v>
+        <v>0.17084964296025887</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="17" thickBot="1">
       <c r="A105" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B105" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D105" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E105" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.94991364421416236</v>
+        <v>1.1669658886894076</v>
       </c>
       <c r="F105" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G105" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.83056478405315615</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="H105" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -5650,16 +5651,16 @@
       </c>
       <c r="I105" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.16949152542372881</v>
+        <v>0.17793594306049823</v>
       </c>
       <c r="J105" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.9498601580855468</v>
+        <v>0.96958143852518719</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="17" thickBot="1">
       <c r="A106" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B106" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -5667,23 +5668,23 @@
       </c>
       <c r="C106" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D106" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E106" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.77720207253886009</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F106" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G106" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49833887043189368</v>
+        <v>0.17094017094017094</v>
       </c>
       <c r="H106" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -5691,65 +5692,65 @@
       </c>
       <c r="I106" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33898305084745761</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J106" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.92819983901934211</v>
+        <v>1.8743547377280962</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="17" thickBot="1">
       <c r="A107" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B107" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C107" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D107" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E107" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3816925734024179</v>
+        <v>0.89766606822262118</v>
       </c>
       <c r="F107" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G107" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.83056478405315615</v>
+        <v>1.3675213675213675</v>
       </c>
       <c r="H107" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I107" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.3559322033898304</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J107" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.63192063896609685</v>
+        <v>0.36863061859799046</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="17" thickBot="1">
       <c r="A108" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B108" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D108" s="16">
         <f t="shared" ca="1" si="11"/>
@@ -5757,77 +5758,77 @@
       </c>
       <c r="E108" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.77720207253886009</v>
+        <v>0.80789946140035906</v>
       </c>
       <c r="F108" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G108" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.4950166112956811</v>
+        <v>0.34188034188034189</v>
       </c>
       <c r="H108" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I108" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5254237288135593</v>
+        <v>0.53380782918149461</v>
       </c>
       <c r="J108" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.25731416118973932</v>
+        <v>0.92258807198539794</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="17" thickBot="1">
       <c r="A109" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B109" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C109" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D109" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E109" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.77720207253886009</v>
+        <v>0.44883303411131059</v>
       </c>
       <c r="F109" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G109" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49833887043189368</v>
+        <v>0.34188034188034189</v>
       </c>
       <c r="H109" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I109" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.3559322033898304</v>
+        <v>0.71174377224199292</v>
       </c>
       <c r="J109" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.41914156107554257</v>
+        <v>0.42598971312002187</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="17" thickBot="1">
       <c r="A110" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B110" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C110" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -5835,19 +5836,19 @@
       </c>
       <c r="D110" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E110" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.94991364421416236</v>
+        <v>0.71813285457809695</v>
       </c>
       <c r="F110" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G110" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.4950166112956811</v>
+        <v>1.1965811965811965</v>
       </c>
       <c r="H110" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -5855,139 +5856,139 @@
       </c>
       <c r="I110" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33898305084745761</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J110" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.51794646630639574</v>
+        <v>0.46257942515603634</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="17" thickBot="1">
       <c r="A111" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B111" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C111" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D111" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E111" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.69084628670120896</v>
+        <v>0.80789946140035906</v>
       </c>
       <c r="F111" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G111" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.99667774086378735</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="H111" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I111" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33898305084745761</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J111" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.51723183834429898</v>
+        <v>0.51118765574402636</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="17" thickBot="1">
       <c r="A112" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B112" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C112" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D112" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E112" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.34542314335060448</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F112" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G112" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.33222591362126247</v>
+        <v>0.68376068376068377</v>
       </c>
       <c r="H112" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I112" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.50847457627118642</v>
+        <v>0.17793594306049823</v>
       </c>
       <c r="J112" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.41087539201362261</v>
+        <v>1.1459168393028814</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="17" thickBot="1">
       <c r="A113" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B113" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C113" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D113" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E113" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.94991364421416236</v>
+        <v>0.71813285457809695</v>
       </c>
       <c r="F113" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G113" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.83056478405315615</v>
+        <v>0.34188034188034189</v>
       </c>
       <c r="H113" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I113" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33898305084745761</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J113" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.81220589348094907</v>
+        <v>0.50949619896340304</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="17" thickBot="1">
       <c r="A114" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B114" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -5995,122 +5996,122 @@
       </c>
       <c r="C114" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D114" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E114" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.77720207253886009</v>
+        <v>1.1669658886894076</v>
       </c>
       <c r="F114" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G114" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3289036544850499</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H114" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I114" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5254237288135593</v>
+        <v>0.17793594306049823</v>
       </c>
       <c r="J114" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.27228904332644732</v>
+        <v>1.1300835794533626</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="17" thickBot="1">
       <c r="A115" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B115" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C115" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D115" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E115" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.51813471502590669</v>
+        <v>0.9874326750448833</v>
       </c>
       <c r="F115" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G115" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.99667774086378735</v>
+        <v>0.34188034188034189</v>
       </c>
       <c r="H115" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I115" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.84745762711864403</v>
+        <v>1.0676156583629892</v>
       </c>
       <c r="J115" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.28096349325633824</v>
+        <v>0.70055727357467923</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="17" thickBot="1">
       <c r="A116" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B116" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D116" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E116" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2089810017271156</v>
+        <v>1.0771992818671454</v>
       </c>
       <c r="F116" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G116" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.33222591362126247</v>
+        <v>1.1965811965811965</v>
       </c>
       <c r="H116" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I116" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.84745762711864403</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J116" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>1.0248350171681073</v>
+        <v>0.41113397712962779</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="17" thickBot="1">
       <c r="A117" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B117" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -6126,107 +6127,107 @@
       </c>
       <c r="E117" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.86355785837651122</v>
+        <v>0.89766606822262118</v>
       </c>
       <c r="F117" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G117" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.99667774086378735</v>
+        <v>0.34188034188034189</v>
       </c>
       <c r="H117" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I117" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.67796610169491522</v>
+        <v>0.35587188612099646</v>
       </c>
       <c r="J117" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.51566657723296783</v>
+        <v>1.2865112173040589</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="17" thickBot="1">
       <c r="A118" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B118" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C118" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D118" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E118" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.43177892918825561</v>
+        <v>0.89766606822262118</v>
       </c>
       <c r="F118" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G118" s="19">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1627906976744187</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="H118" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I118" s="19">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0169491525423728</v>
+        <v>1.4234875444839858</v>
       </c>
       <c r="J118" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.1980873676945035</v>
+        <v>0.39402626602076257</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="14">
       <c r="A119" s="15"/>
       <c r="B119" s="22">
         <f t="shared" ref="B119:J119" ca="1" si="16">SUM(B4:B118)</f>
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="C119" s="22">
         <f t="shared" ca="1" si="16"/>
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="D119" s="22">
         <f t="shared" ca="1" si="16"/>
-        <v>1158</v>
+        <v>1114</v>
       </c>
       <c r="E119" s="23">
         <f t="shared" ca="1" si="16"/>
-        <v>99.999999999999929</v>
+        <v>100.00000000000003</v>
       </c>
       <c r="F119" s="22">
         <f t="shared" ca="1" si="16"/>
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="G119" s="23">
         <f t="shared" ca="1" si="16"/>
-        <v>100.00000000000003</v>
+        <v>99.999999999999872</v>
       </c>
       <c r="H119" s="22">
         <f t="shared" ca="1" si="16"/>
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="I119" s="23">
         <f t="shared" ca="1" si="16"/>
-        <v>99.999999999999957</v>
+        <v>100.00000000000009</v>
       </c>
       <c r="J119" s="24">
         <f t="shared" ca="1" si="16"/>
-        <v>68.191405029444027</v>
+        <v>70.640405836259347</v>
       </c>
     </row>
   </sheetData>
